--- a/posts/E4-NHLBallots/NHL_Award_Ballet.xlsx
+++ b/posts/E4-NHLBallots/NHL_Award_Ballet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/sola4859_vandals_uidaho_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB520/posts/E4-NHLBallots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A8A392-1ED1-462C-A96E-DC94ABD8F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61038894-9CFC-2144-A137-B4375B924047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{081EF51A-A1DC-433D-B18C-42A2FF443F2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{081EF51A-A1DC-433D-B18C-42A2FF443F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Jackson Blake</t>
   </si>
   <si>
-    <t>Matthew Thachuk</t>
-  </si>
-  <si>
     <t>Leon Draisaitl</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>JAMES NORRIS</t>
   </si>
   <si>
-    <t>Cale Maker</t>
-  </si>
-  <si>
     <t>Zach Werenski</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Sidney Crosby</t>
   </si>
   <si>
-    <t>Mitch Marne</t>
-  </si>
-  <si>
     <t>Jack Eichel</t>
   </si>
   <si>
@@ -150,6 +141,15 @@
   </si>
   <si>
     <t>FRANK J SELKE</t>
+  </si>
+  <si>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
+    <t>Cale Makar</t>
+  </si>
+  <si>
+    <t>Matthew Tkachuk</t>
   </si>
 </sst>
 </file>
@@ -191,11 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,20 +532,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,19 +559,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -586,21 +585,21 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -612,21 +611,21 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -635,24 +634,24 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -661,24 +660,24 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -687,19 +686,19 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -709,6 +708,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0896e26d-db37-4267-ac81-5c34a542dbdb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E711E083245C3A41B4A927C3994653C1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="637b01ef3070416dd25fc946ea4b01cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0896e26d-db37-4267-ac81-5c34a542dbdb" xmlns:ns4="6afc2031-0e13-4c10-9339-fae89ba76e20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77fd185b5fbeb6bd5516d4efe8512c37" ns3:_="" ns4:_="">
     <xsd:import namespace="0896e26d-db37-4267-ac81-5c34a542dbdb"/>
@@ -935,24 +951,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0223EA7E-7063-405E-89BC-3D6F62CE5D77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0896e26d-db37-4267-ac81-5c34a542dbdb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFEA2E05-7E0E-4B37-A85A-BF126D2A1F54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6afc2031-0e13-4c10-9339-fae89ba76e20"/>
+    <ds:schemaRef ds:uri="0896e26d-db37-4267-ac81-5c34a542dbdb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40641E18-C414-446B-903F-A417CD798927}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -969,29 +993,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0223EA7E-7063-405E-89BC-3D6F62CE5D77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFEA2E05-7E0E-4B37-A85A-BF126D2A1F54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6afc2031-0e13-4c10-9339-fae89ba76e20"/>
-    <ds:schemaRef ds:uri="0896e26d-db37-4267-ac81-5c34a542dbdb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>